--- a/data/KatsBaseballTableAssessment.xlsx
+++ b/data/KatsBaseballTableAssessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohitkrishnan/Desktop/Liquid Sports Lab/ECCKatsDash/ECCKatsBaseball/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5F37C-04F1-154A-A628-862972566669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1607CECA-F3F1-5140-A181-D3A935F0B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="140">
   <si>
-    <t>Lifestyle - Sleep (Avg # of hours)</t>
-  </si>
-  <si>
-    <t>Lifestyle - Water intake (oz/day)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Previous Injury </t>
   </si>
   <si>
@@ -454,6 +448,12 @@
   </si>
   <si>
     <t xml:space="preserve">R humerus fx August 24 required surgery with plates </t>
+  </si>
+  <si>
+    <t>Water intake (oz/day)</t>
+  </si>
+  <si>
+    <t>Sleep (avg # of hours)</t>
   </si>
 </sst>
 </file>
@@ -793,7 +793,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -817,103 +817,103 @@
   <sheetData>
     <row r="1" spans="1:31" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="W1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="Y1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="AE1" s="10"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="6">
         <v>7</v>
@@ -978,33 +978,33 @@
         <v>46</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AB2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C3" s="6">
         <v>8</v>
@@ -1069,33 +1069,33 @@
         <v>39</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="AC3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6">
         <v>7.5</v>
@@ -1160,33 +1160,33 @@
         <v>34</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="AA4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="6">
         <v>7</v>
@@ -1251,33 +1251,33 @@
         <v>43</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="Z5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -1342,36 +1342,36 @@
         <v>34</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="AC6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="6">
         <v>9</v>
@@ -1436,33 +1436,33 @@
         <v>40</v>
       </c>
       <c r="W7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="Z7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="6">
         <v>7</v>
@@ -1527,33 +1527,33 @@
         <v>39</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="AB8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C9" s="6">
         <v>7</v>
@@ -1618,33 +1618,33 @@
         <v>26</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AB9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="6">
         <v>4.5</v>
@@ -1709,33 +1709,33 @@
         <v>42</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="6">
         <v>7</v>
@@ -1800,33 +1800,33 @@
         <v>43</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AB11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="6">
         <v>7</v>
@@ -1891,33 +1891,33 @@
         <v>47</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="Z12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C13" s="6">
         <v>7</v>
@@ -1982,33 +1982,33 @@
         <v>44</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="6">
         <v>9.5</v>
@@ -2073,33 +2073,33 @@
         <v>34</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="6">
         <v>8</v>
@@ -2164,33 +2164,33 @@
         <v>46</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AB15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="6">
         <v>8</v>
@@ -2255,33 +2255,33 @@
         <v>38</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="6">
         <v>9</v>
@@ -2346,33 +2346,33 @@
         <v>41</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="6">
         <v>8</v>
@@ -2437,33 +2437,33 @@
         <v>45</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z18" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AA18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="6">
         <v>6.5</v>
@@ -2528,33 +2528,33 @@
         <v>37</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AA19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="6">
         <v>9</v>
@@ -2619,25 +2619,25 @@
         <v>35</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="AB20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6523,22 +6523,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -6566,22 +6566,22 @@
         <v>Nick</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6590,22 +6590,22 @@
         <v>Xavier</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6614,22 +6614,22 @@
         <v>John</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6638,22 +6638,22 @@
         <v>Joe</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6662,22 +6662,22 @@
         <v>Liam</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6686,22 +6686,22 @@
         <v>Rafael</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6710,22 +6710,22 @@
         <v>Jaxzyn</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6734,22 +6734,22 @@
         <v>Justin</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6758,22 +6758,22 @@
         <v>Brendan</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6782,22 +6782,22 @@
         <v>Jaden</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6806,22 +6806,22 @@
         <v>Kayden</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6830,22 +6830,22 @@
         <v>Kaleb</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6854,22 +6854,22 @@
         <v>Tony</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6878,22 +6878,22 @@
         <v>Kieran</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6902,22 +6902,22 @@
         <v>Zack</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6926,22 +6926,22 @@
         <v>Gianluca</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6950,22 +6950,22 @@
         <v>Cole</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6974,22 +6974,22 @@
         <v>Reece</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6998,22 +6998,22 @@
         <v>Caleb</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
